--- a/bsd-api-dms-product/sample_product_v2_aice - 1 data.xlsx
+++ b/bsd-api-dms-product/sample_product_v2_aice - 1 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AEC8F1-B5DD-492A-A59A-F0F32356D617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203E19D-D1ED-44FE-8ED0-35B39DB90B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{298CAFA9-C02F-4F29-912E-23CDB1EC0819}"/>
   </bookViews>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{0A5718F3-2FC0-45E2-9533-B005D7FCC8A8}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{77118A26-DEDA-4714-8366-6D4105C6CFF5}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{15ACEDF3-159B-4093-BB9A-E2CEC763EF1F}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{01A41405-F062-465E-9D5F-4F8EE0ECF2BB}">
       <text>
         <r>
           <rPr>
@@ -139,16 +139,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Y_1</t>
-  </si>
-  <si>
-    <t>Test Aice Y_1</t>
-  </si>
-  <si>
-    <t>Y_2</t>
-  </si>
-  <si>
-    <t>Test Aice Y_2</t>
+    <t>Test01</t>
+  </si>
+  <si>
+    <t>Test02</t>
+  </si>
+  <si>
+    <t>Item Test01</t>
+  </si>
+  <si>
+    <t>Item Test02</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4A7D6"/>
+          <bgColor rgb="FFB4A7D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4A7D6"/>
+          <bgColor rgb="FFB4A7D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -573,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5C391-8A8B-4CDA-BE9F-8D08DC73E9F7}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -627,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -653,13 +669,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -680,11 +696,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"A1:A999"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
